--- a/public/Carbon_Footprint_Template.xlsx
+++ b/public/Carbon_Footprint_Template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeyavarman Murugan\Downloads\Rane_Internship_2025\REACT UI\carbon-dashboard\public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeyavarman Murugan\Downloads\Rane_Internship_2025\REACT UI\carbon-dashboard-2\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{47DDD8FD-A0DF-4EB5-97A3-9C20EDE672BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F57BC81A-B5CB-4817-A687-B6C23F4C8F30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EFB64E8D-A8EC-4EF6-A794-F335A710192C}"/>
   </bookViews>
@@ -64,17 +64,17 @@
     <t>Estimated Investment in Rs.</t>
   </si>
   <si>
-    <t>Estimated Timeline in months</t>
-  </si>
-  <si>
     <t>Payback period in months</t>
+  </si>
+  <si>
+    <t>Lead time for implementation in Months</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -92,13 +92,21 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="0"/>
       <name val="Century Gothic"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -115,6 +123,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF0070C0"/>
         <bgColor rgb="FF5B9BD5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -150,13 +164,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -475,60 +492,60 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26" style="3" customWidth="1"/>
+    <col min="1" max="1" width="26" customWidth="1"/>
     <col min="2" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3">
+      <c r="B1">
         <v>2025</v>
       </c>
-      <c r="C1" s="3">
+      <c r="C1">
         <v>2026</v>
       </c>
-      <c r="D1" s="3">
+      <c r="D1">
         <v>2027</v>
       </c>
-      <c r="E1" s="3">
+      <c r="E1">
         <v>2028</v>
       </c>
-      <c r="F1" s="3">
+      <c r="F1">
         <v>2029</v>
       </c>
-      <c r="G1" s="3">
+      <c r="G1">
         <v>2030</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+      <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
@@ -540,10 +557,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A589BB4A-6D34-408D-954F-A64B8F2ECFCC}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D20" sqref="D19:D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -554,40 +571,41 @@
     <col min="4" max="4" width="44.44140625" style="1" customWidth="1"/>
     <col min="5" max="5" width="36.33203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="33.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="27.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="46.77734375" style="1" customWidth="1"/>
     <col min="8" max="8" width="31.109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="28" style="1" customWidth="1"/>
     <col min="10" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:9" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="I1" s="5"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="jkldFLsl97X5IYH7WqWJkQU2VkRwQPgxUUbcoiyb10ChMzFnM/Aqchcl275Kvr2zZMdhpL9IZafjOXRTneTl4w==" saltValue="rR6zQbSqWcLln//PhBAL0w==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>